--- a/PATRICK GITHU.xlsx
+++ b/PATRICK GITHU.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="199">
   <si>
     <t>RENT STATEMENT</t>
   </si>
@@ -635,6 +635,12 @@
   </si>
   <si>
     <t>FOR THE MONTH OF DECEMBER 2021</t>
+  </si>
+  <si>
+    <t>peter</t>
+  </si>
+  <si>
+    <t>PAID ON 15/12</t>
   </si>
 </sst>
 </file>
@@ -27713,13 +27719,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
@@ -27804,13 +27812,17 @@
         <f>C5+D5+E5+F5</f>
         <v>3600</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="6">
+        <v>3600</v>
+      </c>
       <c r="I5" s="8">
         <f>G5-H5</f>
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="K5" s="8">
+        <v>220</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -27834,10 +27846,12 @@
         <f t="shared" ref="G6:G24" si="0">C6+D6+E6+F6</f>
         <v>3700</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="6">
+        <v>3500</v>
+      </c>
       <c r="I6" s="8">
         <f t="shared" ref="I6:I24" si="1">G6-H6</f>
-        <v>3700</v>
+        <v>200</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -27928,13 +27942,17 @@
         <f>C9+D9+E9+F9</f>
         <v>3700</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6">
+        <v>3600</v>
+      </c>
       <c r="I9" s="8">
         <f>G9-H9</f>
-        <v>3700</v>
+        <v>100</v>
       </c>
       <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="K9" s="8">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
@@ -27958,13 +27976,17 @@
         <f t="shared" si="0"/>
         <v>3700</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="6">
+        <v>3700</v>
+      </c>
       <c r="I10" s="8">
         <f>G10-H10</f>
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="K10" s="8">
+        <v>220</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
@@ -28146,10 +28168,12 @@
         <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="6">
+        <v>3600</v>
+      </c>
       <c r="I16" s="8">
         <f t="shared" si="1"/>
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -28271,12 +28295,12 @@
         <v>5400</v>
       </c>
       <c r="H20" s="6">
-        <f>1150+500</f>
-        <v>1650</v>
+        <f>1150+500+1000+2000</f>
+        <v>4650</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" si="1"/>
-        <v>3750</v>
+        <v>750</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -28303,31 +28327,45 @@
         <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-      <c r="H21" s="6"/>
+      <c r="H21" s="6">
+        <v>3600</v>
+      </c>
       <c r="I21" s="8">
         <f t="shared" si="1"/>
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="K21" s="8">
+        <v>240</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>18</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="B22" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="6">
+        <v>100</v>
+      </c>
+      <c r="D22" s="6">
+        <v>3500</v>
+      </c>
+      <c r="E22" s="6">
+        <v>3500</v>
+      </c>
       <c r="F22" s="6">
         <f>'NOVEMBER 21'!I22:I41</f>
         <v>0</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="6"/>
+        <v>7100</v>
+      </c>
+      <c r="H22" s="6">
+        <v>7100</v>
+      </c>
       <c r="I22" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -28358,10 +28396,12 @@
         <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-      <c r="H23" s="6"/>
+      <c r="H23" s="6">
+        <v>3600</v>
+      </c>
       <c r="I23" s="8">
         <f t="shared" si="1"/>
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -28388,10 +28428,12 @@
         <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-      <c r="H24" s="6"/>
+      <c r="H24" s="6">
+        <v>3600</v>
+      </c>
       <c r="I24" s="8">
         <f t="shared" si="1"/>
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -28403,15 +28445,15 @@
       </c>
       <c r="C25" s="30">
         <f>SUM(C5:C24)</f>
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="D25" s="30">
         <f>SUM(D5:D24)</f>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="E25" s="30">
         <f>SUM(E5:E24)</f>
-        <v>66500</v>
+        <v>70000</v>
       </c>
       <c r="F25" s="30">
         <f>SUM(F5:F24)</f>
@@ -28419,15 +28461,15 @@
       </c>
       <c r="G25" s="30">
         <f>C25+D25+E25+F25</f>
-        <v>70700</v>
+        <v>77800</v>
       </c>
       <c r="H25" s="30">
         <f>SUM(H5:H24)</f>
-        <v>22630</v>
+        <v>61530</v>
       </c>
       <c r="I25" s="30">
         <f>SUM(I5:I24)</f>
-        <v>48070</v>
+        <v>16270</v>
       </c>
       <c r="J25" s="30">
         <f>SUM(J5:J24)</f>
@@ -28435,7 +28477,7 @@
       </c>
       <c r="K25" s="30">
         <f>SUM(K5:K24)</f>
-        <v>240</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="21" x14ac:dyDescent="0.35">
@@ -28485,7 +28527,7 @@
       </c>
       <c r="C29" s="23">
         <f>E25</f>
-        <v>66500</v>
+        <v>70000</v>
       </c>
       <c r="D29" s="49">
         <v>0.1</v>
@@ -28496,7 +28538,7 @@
       </c>
       <c r="G29" s="23">
         <f>H25</f>
-        <v>22630</v>
+        <v>61530</v>
       </c>
       <c r="H29" s="49">
         <v>0.1</v>
@@ -28529,7 +28571,7 @@
       </c>
       <c r="C31" s="23">
         <f>C25</f>
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="19"/>
@@ -28544,7 +28586,7 @@
       </c>
       <c r="C32" s="23">
         <f>D25</f>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="19"/>
@@ -28573,7 +28615,7 @@
       </c>
       <c r="C34" s="23">
         <f>K25</f>
-        <v>240</v>
+        <v>1020</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="19"/>
@@ -28582,7 +28624,7 @@
       </c>
       <c r="G34" s="23">
         <f>K25</f>
-        <v>240</v>
+        <v>1020</v>
       </c>
       <c r="H34" s="23"/>
       <c r="I34" s="19"/>
@@ -28595,14 +28637,14 @@
       <c r="C35" s="18"/>
       <c r="D35" s="15">
         <f>C29*D29</f>
-        <v>6650</v>
+        <v>7000</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="44"/>
       <c r="G35" s="18"/>
       <c r="H35" s="15">
         <f>H29*C29</f>
-        <v>6650</v>
+        <v>7000</v>
       </c>
       <c r="I35" s="19"/>
       <c r="K35" s="47"/>
@@ -28646,13 +28688,21 @@
       <c r="I37" s="19"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
+      <c r="B38" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="C38" s="50"/>
-      <c r="D38" s="6"/>
+      <c r="D38" s="6">
+        <v>69640</v>
+      </c>
       <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
+      <c r="F38" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="G38" s="50"/>
-      <c r="H38" s="6"/>
+      <c r="H38" s="6">
+        <v>69640</v>
+      </c>
       <c r="I38" s="19"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -28693,28 +28743,28 @@
       </c>
       <c r="C42" s="39">
         <f>C29+C30+C31+C32+C33+C34-D35</f>
-        <v>61994</v>
+        <v>69524</v>
       </c>
       <c r="D42" s="36">
         <f>SUM(D37:D41)</f>
-        <v>0</v>
+        <v>69640</v>
       </c>
       <c r="E42" s="39">
         <f>C42-D42</f>
-        <v>61994</v>
+        <v>-116</v>
       </c>
       <c r="F42" s="40"/>
       <c r="G42" s="39">
         <f>G29+G30+G34+G31+G33-H35</f>
-        <v>17324</v>
+        <v>56654</v>
       </c>
       <c r="H42" s="39">
         <f>SUM(H37:H41)</f>
-        <v>0</v>
+        <v>69640</v>
       </c>
       <c r="I42" s="39">
         <f>G42-H42</f>
-        <v>17324</v>
+        <v>-12986</v>
       </c>
       <c r="J42" s="34"/>
       <c r="K42" s="34"/>
